--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Fgf9</t>
   </si>
   <si>
@@ -88,10 +91,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.7364236666666667</v>
+      </c>
+      <c r="H2">
+        <v>2.209271</v>
+      </c>
+      <c r="I2">
+        <v>0.9917500467982164</v>
+      </c>
+      <c r="J2">
+        <v>0.9944848646626661</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.883656666666667</v>
-      </c>
-      <c r="H2">
-        <v>5.650970000000001</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>0.9302080553566667</v>
+        <v>0.2105145603024444</v>
       </c>
       <c r="R2">
-        <v>8.371872498210001</v>
+        <v>1.894631042722</v>
       </c>
       <c r="S2">
-        <v>0.1121895146192186</v>
+        <v>0.06814878481285022</v>
       </c>
       <c r="T2">
-        <v>0.1134277760249069</v>
+        <v>0.06894623018763399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H3">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
-        <v>7.088878780952223</v>
+        <v>2.771427615661223</v>
       </c>
       <c r="R3">
-        <v>63.79990902857001</v>
+        <v>24.942848540951</v>
       </c>
       <c r="S3">
-        <v>0.85496773012202</v>
+        <v>0.8971798622040211</v>
       </c>
       <c r="T3">
-        <v>0.8644042050627692</v>
+        <v>0.9076782435534247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H4">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>0.000767276148888889</v>
+        <v>0.081250359567</v>
       </c>
       <c r="R4">
-        <v>0.006905485340000002</v>
+        <v>0.487502157402</v>
       </c>
       <c r="S4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02630275674111599</v>
       </c>
       <c r="T4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01774035957571835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7364236666666667</v>
+      </c>
+      <c r="H5">
+        <v>2.209271</v>
+      </c>
+      <c r="I5">
+        <v>0.9917500467982164</v>
+      </c>
+      <c r="J5">
+        <v>0.9944848646626661</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.001493</v>
+      </c>
+      <c r="O5">
+        <v>0.0001196299819817856</v>
+      </c>
+      <c r="P5">
+        <v>0.0001206970062130259</v>
+      </c>
+      <c r="Q5">
+        <v>0.0003664935114444444</v>
+      </c>
+      <c r="R5">
+        <v>0.003298441603</v>
+      </c>
+      <c r="S5">
+        <v>0.0001186430402289057</v>
+      </c>
+      <c r="T5">
+        <v>0.00012003134588895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.006126</v>
+      </c>
+      <c r="H6">
+        <v>0.012252</v>
+      </c>
+      <c r="I6">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J6">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.883656666666667</v>
-      </c>
-      <c r="H5">
-        <v>5.650970000000001</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.2858606666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.857582</v>
+      </c>
+      <c r="O6">
+        <v>0.0687156860066334</v>
+      </c>
+      <c r="P6">
+        <v>0.06932858672617494</v>
+      </c>
+      <c r="Q6">
+        <v>0.001751182444</v>
+      </c>
+      <c r="R6">
+        <v>0.010507094664</v>
+      </c>
+      <c r="S6">
+        <v>0.0005669011937831808</v>
+      </c>
+      <c r="T6">
+        <v>0.0003823565385409448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.006126</v>
+      </c>
+      <c r="H7">
+        <v>0.012252</v>
+      </c>
+      <c r="I7">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J7">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.763360333333333</v>
+      </c>
+      <c r="N7">
+        <v>11.290081</v>
+      </c>
+      <c r="O7">
+        <v>0.9046431256549901</v>
+      </c>
+      <c r="P7">
+        <v>0.9127119736118995</v>
+      </c>
+      <c r="Q7">
+        <v>0.023054345402</v>
+      </c>
+      <c r="R7">
+        <v>0.138326072412</v>
+      </c>
+      <c r="S7">
+        <v>0.007463263450968895</v>
+      </c>
+      <c r="T7">
+        <v>0.005033730058474745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.006126</v>
+      </c>
+      <c r="H8">
+        <v>0.012252</v>
+      </c>
+      <c r="I8">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J8">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.1441585</v>
-      </c>
-      <c r="N5">
-        <v>0.288317</v>
-      </c>
-      <c r="O5">
-        <v>0.03275021645711715</v>
-      </c>
-      <c r="P5">
-        <v>0.02207445873870014</v>
-      </c>
-      <c r="Q5">
-        <v>0.2715451195816667</v>
-      </c>
-      <c r="R5">
-        <v>1.62927071749</v>
-      </c>
-      <c r="S5">
-        <v>0.03275021645711715</v>
-      </c>
-      <c r="T5">
-        <v>0.02207445873870014</v>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.110331</v>
+      </c>
+      <c r="N8">
+        <v>0.220662</v>
+      </c>
+      <c r="O8">
+        <v>0.02652155835639462</v>
+      </c>
+      <c r="P8">
+        <v>0.01783874265571248</v>
+      </c>
+      <c r="Q8">
+        <v>0.000675887706</v>
+      </c>
+      <c r="R8">
+        <v>0.002703550824</v>
+      </c>
+      <c r="S8">
+        <v>0.000218801615278628</v>
+      </c>
+      <c r="T8">
+        <v>9.838307999412531E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.006126</v>
+      </c>
+      <c r="H9">
+        <v>0.012252</v>
+      </c>
+      <c r="I9">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J9">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.001493</v>
+      </c>
+      <c r="O9">
+        <v>0.0001196299819817856</v>
+      </c>
+      <c r="P9">
+        <v>0.0001206970062130259</v>
+      </c>
+      <c r="Q9">
+        <v>3.048706E-06</v>
+      </c>
+      <c r="R9">
+        <v>1.8292236E-05</v>
+      </c>
+      <c r="S9">
+        <v>9.869417528799447E-07</v>
+      </c>
+      <c r="T9">
+        <v>6.656603240758675E-07</v>
       </c>
     </row>
   </sheetData>
